--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>1.832846127768044</v>
+        <v>3.456939005865555</v>
       </c>
       <c r="R2">
-        <v>1.832846127768044</v>
+        <v>31.11245105278999</v>
       </c>
       <c r="S2">
-        <v>0.00264082261550226</v>
+        <v>0.004208794396788296</v>
       </c>
       <c r="T2">
-        <v>0.00264082261550226</v>
+        <v>0.004208794396788295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>8.662003510977399</v>
+        <v>10.43830302353667</v>
       </c>
       <c r="R3">
-        <v>8.662003510977399</v>
+        <v>93.94472721182998</v>
       </c>
       <c r="S3">
-        <v>0.01248048836222002</v>
+        <v>0.01270854683952964</v>
       </c>
       <c r="T3">
-        <v>0.01248048836222002</v>
+        <v>0.01270854683952964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>19.36691449280355</v>
+        <v>25.47364848106111</v>
       </c>
       <c r="R4">
-        <v>19.36691449280355</v>
+        <v>229.26283632955</v>
       </c>
       <c r="S4">
-        <v>0.02790446236061051</v>
+        <v>0.03101395448717221</v>
       </c>
       <c r="T4">
-        <v>0.02790446236061051</v>
+        <v>0.03101395448717221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>14.85228016089684</v>
+        <v>19.97339926812778</v>
       </c>
       <c r="R5">
-        <v>14.85228016089684</v>
+        <v>179.76059341315</v>
       </c>
       <c r="S5">
-        <v>0.021399634560941</v>
+        <v>0.02431744696156811</v>
       </c>
       <c r="T5">
-        <v>0.021399634560941</v>
+        <v>0.02431744696156811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>22.12247308615629</v>
+        <v>35.28264014216823</v>
       </c>
       <c r="R6">
-        <v>22.12247308615629</v>
+        <v>317.543761279514</v>
       </c>
       <c r="S6">
-        <v>0.03187475825256791</v>
+        <v>0.04295631999358182</v>
       </c>
       <c r="T6">
-        <v>0.03187475825256791</v>
+        <v>0.04295631999358181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>104.5504784283997</v>
+        <v>106.5367044803087</v>
       </c>
       <c r="R7">
-        <v>104.5504784283997</v>
+        <v>958.8303403227781</v>
       </c>
       <c r="S7">
-        <v>0.1506396329251709</v>
+        <v>0.1297075488194055</v>
       </c>
       <c r="T7">
-        <v>0.1506396329251709</v>
+        <v>0.1297075488194055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>233.7588726832603</v>
+        <v>259.9923142816144</v>
       </c>
       <c r="R8">
-        <v>233.7588726832603</v>
+        <v>2339.93082853453</v>
       </c>
       <c r="S8">
-        <v>0.3368071701185336</v>
+        <v>0.3165384734008342</v>
       </c>
       <c r="T8">
-        <v>0.3368071701185336</v>
+        <v>0.3165384734008342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N9">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q9">
-        <v>179.2671862354369</v>
+        <v>203.8549877789212</v>
       </c>
       <c r="R9">
-        <v>179.2671862354369</v>
+        <v>1834.69489001029</v>
       </c>
       <c r="S9">
-        <v>0.2582938264460299</v>
+        <v>0.2481917467636795</v>
       </c>
       <c r="T9">
-        <v>0.2582938264460299</v>
+        <v>0.2481917467636795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N10">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q10">
-        <v>0.7825676084374807</v>
+        <v>1.320110680541667</v>
       </c>
       <c r="R10">
-        <v>0.7825676084374807</v>
+        <v>11.880996124875</v>
       </c>
       <c r="S10">
-        <v>0.001127548137954087</v>
+        <v>0.001607223739260916</v>
       </c>
       <c r="T10">
-        <v>0.001127548137954087</v>
+        <v>0.001607223739260916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N11">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q11">
-        <v>3.698402865993621</v>
+        <v>3.986103105875001</v>
       </c>
       <c r="R11">
-        <v>3.698402865993621</v>
+        <v>35.87492795287501</v>
       </c>
       <c r="S11">
-        <v>0.005328775712147709</v>
+        <v>0.004853047273487125</v>
       </c>
       <c r="T11">
-        <v>0.005328775712147709</v>
+        <v>0.004853047273487125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N12">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q12">
-        <v>8.26906292232106</v>
+        <v>9.727691282708333</v>
       </c>
       <c r="R12">
-        <v>8.26906292232106</v>
+        <v>87.549221544375</v>
       </c>
       <c r="S12">
-        <v>0.0119143271458739</v>
+        <v>0.01184338297403604</v>
       </c>
       <c r="T12">
-        <v>0.0119143271458739</v>
+        <v>0.01184338297403604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N13">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q13">
-        <v>6.341456158957724</v>
+        <v>7.627296187708335</v>
       </c>
       <c r="R13">
-        <v>6.341456158957724</v>
+        <v>68.64566568937502</v>
       </c>
       <c r="S13">
-        <v>0.00913697041234169</v>
+        <v>0.009286169470448575</v>
       </c>
       <c r="T13">
-        <v>0.00913697041234169</v>
+        <v>0.009286169470448576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N14">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q14">
-        <v>3.711232671512658</v>
+        <v>7.788049486900333</v>
       </c>
       <c r="R14">
-        <v>3.711232671512658</v>
+        <v>70.09244538210299</v>
       </c>
       <c r="S14">
-        <v>0.005347261301338127</v>
+        <v>0.009481885270975149</v>
       </c>
       <c r="T14">
-        <v>0.005347261301338127</v>
+        <v>0.009481885270975149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N15">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q15">
-        <v>17.53923034981854</v>
+        <v>23.516185957759</v>
       </c>
       <c r="R15">
-        <v>17.53923034981854</v>
+        <v>211.645673619831</v>
       </c>
       <c r="S15">
-        <v>0.02527107729589301</v>
+        <v>0.02863076019707388</v>
       </c>
       <c r="T15">
-        <v>0.02527107729589301</v>
+        <v>0.02863076019707388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N16">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q16">
-        <v>39.21503541577206</v>
+        <v>57.38893126138166</v>
       </c>
       <c r="R16">
-        <v>39.21503541577206</v>
+        <v>516.5003813524349</v>
       </c>
       <c r="S16">
-        <v>0.05650226215105331</v>
+        <v>0.06987054498813611</v>
       </c>
       <c r="T16">
-        <v>0.05650226215105331</v>
+        <v>0.06987054498813612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N17">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q17">
-        <v>30.0735924006357</v>
+        <v>44.99756045966167</v>
       </c>
       <c r="R17">
-        <v>30.0735924006357</v>
+        <v>404.9780441369551</v>
       </c>
       <c r="S17">
-        <v>0.0433309822018221</v>
+        <v>0.05478415442402285</v>
       </c>
       <c r="T17">
-        <v>0.0433309822018221</v>
+        <v>0.05478415442402285</v>
       </c>
     </row>
   </sheetData>
